--- a/target/test-classes/com/testData/InavlidData.xlsx
+++ b/target/test-classes/com/testData/InavlidData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Healthcare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Healthcare\Healthcare_Domain\src\test\java\com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8834F83C-40BE-42D2-9B8D-88832F59B381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26952C38-222F-4888-9614-3EC6441E8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E81C158E-B67B-4025-B181-F2D7D786A5E0}"/>
   </bookViews>
@@ -490,13 +490,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
